--- a/data/Sources/CGCG186-048.xlsx
+++ b/data/Sources/CGCG186-048.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="312">
   <si>
     <t>Results from query to  NASA/IPAC Extragalactic Database (NED),</t>
   </si>
@@ -944,6 +944,12 @@
   </si>
   <si>
     <t>http://ned.ipac.caltech.edu/cgi-bin/datasearch?objname=cgcg186-048&amp;meas_type=bot&amp;ebars_spec=ebars&amp;label_spec=no&amp;x_spec=freq&amp;y_spec=Fnu_jy&amp;xr=-1&amp;of=table&amp;search_type=Photometry</t>
+  </si>
+  <si>
+    <t>Freq (Hz)</t>
+  </si>
+  <si>
+    <t>SED (Jy)</t>
   </si>
 </sst>
 </file>
@@ -1498,13 +1504,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1828,3707 +1834,4366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q88"/>
+  <dimension ref="A1:U88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1">
+        <v>3.02E+17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.05E-7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21">
+      <c r="A3" s="1">
+        <v>3.02E+17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.29E-7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="1">
+        <v>1950000000000000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.3099999999999998E-5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="1">
+        <v>1950000000000000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="1">
+        <v>1290000000000000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.7500000000000001E-5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
+        <v>1290000000000000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.6900000000000002E-5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
+        <v>836000000000000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.35E-4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
+        <v>836000000000000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.2700000000000002E-4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
+        <v>836000000000000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.0499999999999999E-4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" t="s">
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
+        <v>836000000000000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.2200000000000002E-4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>740000000000000</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.7299999999999997E-4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>681000000000000</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <v>617000000000000</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.3899999999999999E-4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" t="s">
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>617000000000000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>617000000000000</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" t="s">
+      <c r="K16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>16</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
         <v>17</v>
       </c>
-      <c r="K16" t="s">
+      <c r="O16" t="s">
         <v>18</v>
       </c>
-      <c r="L16" t="s">
+      <c r="P16" t="s">
         <v>19</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q16" t="s">
         <v>20</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R16" t="s">
         <v>21</v>
       </c>
-      <c r="O16" t="s">
+      <c r="S16" t="s">
         <v>22</v>
       </c>
-      <c r="P16" t="s">
+      <c r="T16" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="U16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>617000000000000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1">
+      <c r="G17" s="1">
         <v>6.1999999999999998E-13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="1">
+      <c r="J17" s="1">
         <v>3.02E+17</v>
       </c>
-      <c r="G17" s="1">
+      <c r="K17" s="1">
         <v>2.05E-7</v>
       </c>
-      <c r="H17" t="s">
+      <c r="L17" t="s">
         <v>28</v>
       </c>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" t="s">
         <v>30</v>
       </c>
-      <c r="K17" t="s">
+      <c r="O17" t="s">
         <v>31</v>
       </c>
-      <c r="L17" t="s">
+      <c r="P17" t="s">
         <v>32</v>
       </c>
-      <c r="M17" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" t="s">
         <v>34</v>
       </c>
-      <c r="P17" t="s">
+      <c r="T17" t="s">
         <v>35</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="U17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>477000000000000</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9.859999999999999E-4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1">
+      <c r="G18" s="1">
         <v>3.91E-13</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="1">
+      <c r="J18" s="1">
         <v>3.02E+17</v>
       </c>
-      <c r="G18" s="1">
+      <c r="K18" s="1">
         <v>1.29E-7</v>
       </c>
-      <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
         <v>38</v>
       </c>
-      <c r="K18" t="s">
+      <c r="O18" t="s">
         <v>39</v>
       </c>
-      <c r="L18" t="s">
+      <c r="P18" t="s">
         <v>32</v>
       </c>
-      <c r="M18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="Q18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" t="s">
         <v>40</v>
       </c>
-      <c r="O18" t="s">
+      <c r="S18" t="s">
         <v>41</v>
       </c>
-      <c r="P18" t="s">
+      <c r="T18" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="U18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>477000000000000</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.64E-3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
+      <c r="G19">
         <v>20.101600000000001</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="1">
+      <c r="J19" s="1">
         <v>1950000000000000</v>
       </c>
-      <c r="G19" s="1">
+      <c r="K19" s="1">
         <v>3.3099999999999998E-5</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" t="s">
         <v>46</v>
       </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" t="s">
         <v>47</v>
       </c>
-      <c r="K19" t="s">
+      <c r="O19" t="s">
         <v>48</v>
       </c>
-      <c r="L19" t="s">
+      <c r="P19" t="s">
         <v>49</v>
       </c>
-      <c r="M19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="Q19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" t="s">
         <v>50</v>
       </c>
-      <c r="O19" t="s">
+      <c r="S19" t="s">
         <v>34</v>
       </c>
-      <c r="P19" t="s">
+      <c r="T19" t="s">
         <v>51</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="U19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20">
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>477000000000000</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5.64E-3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="C20">
+      <c r="G20">
         <v>20.543399999999998</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="1">
+      <c r="J20" s="1">
         <v>1950000000000000</v>
       </c>
-      <c r="G20" s="1">
+      <c r="K20" s="1">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="H20" t="s">
+      <c r="L20" t="s">
         <v>54</v>
       </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" t="s">
         <v>47</v>
       </c>
-      <c r="K20" t="s">
+      <c r="O20" t="s">
         <v>48</v>
       </c>
-      <c r="L20" t="s">
+      <c r="P20" t="s">
         <v>49</v>
       </c>
-      <c r="M20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="Q20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" t="s">
         <v>50</v>
       </c>
-      <c r="O20" t="s">
+      <c r="S20" t="s">
         <v>55</v>
       </c>
-      <c r="P20" t="s">
+      <c r="T20" t="s">
         <v>56</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="U20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>477000000000000</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5.4599999999999996E-3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F21" t="s">
         <v>57</v>
       </c>
-      <c r="C21">
+      <c r="G21">
         <v>19.326899999999998</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s">
+      <c r="I21" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="1">
+      <c r="J21" s="1">
         <v>1290000000000000</v>
       </c>
-      <c r="G21" s="1">
+      <c r="K21" s="1">
         <v>6.7500000000000001E-5</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L21" t="s">
         <v>59</v>
       </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
         <v>47</v>
       </c>
-      <c r="K21" t="s">
+      <c r="O21" t="s">
         <v>48</v>
       </c>
-      <c r="L21" t="s">
+      <c r="P21" t="s">
         <v>60</v>
       </c>
-      <c r="M21" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="Q21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" t="s">
         <v>50</v>
       </c>
-      <c r="O21" t="s">
+      <c r="S21" t="s">
         <v>34</v>
       </c>
-      <c r="P21" t="s">
+      <c r="T21" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="U21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22">
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <v>468000000000000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
         <v>57</v>
       </c>
-      <c r="C22">
+      <c r="G22">
         <v>19.983000000000001</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
+      <c r="I22" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="1">
+      <c r="J22" s="1">
         <v>1290000000000000</v>
       </c>
-      <c r="G22" s="1">
+      <c r="K22" s="1">
         <v>3.6900000000000002E-5</v>
       </c>
-      <c r="H22" t="s">
+      <c r="L22" t="s">
         <v>62</v>
       </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" t="s">
         <v>47</v>
       </c>
-      <c r="K22" t="s">
+      <c r="O22" t="s">
         <v>48</v>
       </c>
-      <c r="L22" t="s">
+      <c r="P22" t="s">
         <v>60</v>
       </c>
-      <c r="M22" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="Q22" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" t="s">
         <v>50</v>
       </c>
-      <c r="O22" t="s">
+      <c r="S22" t="s">
         <v>55</v>
       </c>
-      <c r="P22" t="s">
+      <c r="T22" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="U22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23">
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
+        <v>465000000000000</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.9100000000000003E-3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="C23">
+      <c r="G23">
         <v>18.617999999999999</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H23" t="s">
         <v>64</v>
       </c>
-      <c r="E23" t="s">
+      <c r="I23" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="1">
+      <c r="J23" s="1">
         <v>836000000000000</v>
       </c>
-      <c r="G23" s="1">
+      <c r="K23" s="1">
         <v>1.35E-4</v>
       </c>
-      <c r="H23" t="s">
+      <c r="L23" t="s">
         <v>66</v>
       </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" t="s">
         <v>67</v>
       </c>
-      <c r="K23" t="s">
+      <c r="O23" t="s">
         <v>68</v>
       </c>
-      <c r="L23" t="s">
+      <c r="P23" t="s">
         <v>69</v>
       </c>
-      <c r="M23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="Q23" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" t="s">
         <v>70</v>
       </c>
-      <c r="O23" t="s">
+      <c r="S23" t="s">
         <v>71</v>
       </c>
-      <c r="P23" t="s">
+      <c r="T23" t="s">
         <v>72</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="U23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24">
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>389000000000000</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.49E-3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
         <v>73</v>
       </c>
-      <c r="C24">
+      <c r="G24">
         <v>17.135999999999999</v>
       </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
+      <c r="I24" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="1">
+      <c r="J24" s="1">
         <v>836000000000000</v>
       </c>
-      <c r="G24" s="1">
+      <c r="K24" s="1">
         <v>5.2700000000000002E-4</v>
       </c>
-      <c r="H24" t="s">
+      <c r="L24" t="s">
         <v>75</v>
       </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" t="s">
         <v>67</v>
       </c>
-      <c r="K24" t="s">
+      <c r="O24" t="s">
         <v>68</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P24" t="s">
         <v>69</v>
       </c>
-      <c r="M24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="Q24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" t="s">
         <v>70</v>
       </c>
-      <c r="O24" t="s">
+      <c r="S24" t="s">
         <v>71</v>
       </c>
-      <c r="P24" t="s">
+      <c r="T24" t="s">
         <v>72</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="U24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25">
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>389000000000000</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.4899999999999993E-3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>76</v>
       </c>
-      <c r="C25">
+      <c r="G25">
         <v>17.73</v>
       </c>
-      <c r="E25" t="s">
+      <c r="I25" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="1">
+      <c r="J25" s="1">
         <v>836000000000000</v>
       </c>
-      <c r="G25" s="1">
+      <c r="K25" s="1">
         <v>3.0499999999999999E-4</v>
       </c>
-      <c r="I25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" t="s">
         <v>67</v>
       </c>
-      <c r="K25" t="s">
+      <c r="O25" t="s">
         <v>39</v>
       </c>
-      <c r="L25" t="s">
+      <c r="P25" t="s">
         <v>69</v>
       </c>
-      <c r="M25" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="Q25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" t="s">
         <v>70</v>
       </c>
-      <c r="O25" t="s">
+      <c r="S25" t="s">
         <v>71</v>
       </c>
-      <c r="P25" t="s">
+      <c r="T25" t="s">
         <v>72</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="U25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26">
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>389000000000000</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.3199999999999993E-3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="F26" t="s">
         <v>77</v>
       </c>
-      <c r="C26">
+      <c r="G26">
         <v>17.672000000000001</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
         <v>78</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="1">
+      <c r="J26" s="1">
         <v>836000000000000</v>
       </c>
-      <c r="G26" s="1">
+      <c r="K26" s="1">
         <v>3.2200000000000002E-4</v>
       </c>
-      <c r="H26" t="s">
+      <c r="L26" t="s">
         <v>79</v>
       </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="M26" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" t="s">
+      <c r="O26" t="s">
         <v>68</v>
       </c>
-      <c r="L26" t="s">
+      <c r="P26" t="s">
         <v>69</v>
       </c>
-      <c r="M26" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="Q26" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" t="s">
         <v>70</v>
       </c>
-      <c r="O26" t="s">
+      <c r="S26" t="s">
         <v>71</v>
       </c>
-      <c r="P26" t="s">
+      <c r="T26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27">
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>389000000000000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8.3300000000000006E-3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="F27" t="s">
         <v>80</v>
       </c>
-      <c r="C27">
+      <c r="G27">
         <v>16.600000000000001</v>
       </c>
-      <c r="E27" t="s">
+      <c r="I27" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="1">
+      <c r="J27" s="1">
         <v>740000000000000</v>
       </c>
-      <c r="G27" s="1">
+      <c r="K27" s="1">
         <v>8.7299999999999997E-4</v>
       </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
         <v>81</v>
       </c>
-      <c r="K27" t="s">
+      <c r="O27" t="s">
         <v>39</v>
       </c>
-      <c r="L27" t="s">
+      <c r="P27" t="s">
         <v>82</v>
       </c>
-      <c r="M27" t="s">
-        <v>33</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="Q27" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" t="s">
         <v>83</v>
       </c>
-      <c r="O27" t="s">
+      <c r="S27" t="s">
         <v>84</v>
       </c>
-      <c r="P27" t="s">
+      <c r="T27" t="s">
         <v>35</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="U27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28">
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>325000000000000</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" t="s">
         <v>85</v>
       </c>
-      <c r="C28">
+      <c r="G28">
         <v>15.7</v>
       </c>
-      <c r="D28" t="s">
+      <c r="H28" t="s">
         <v>86</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="1">
+      <c r="J28" s="1">
         <v>681000000000000</v>
       </c>
-      <c r="G28" s="1">
+      <c r="K28" s="1">
         <v>2.2399999999999998E-3</v>
       </c>
-      <c r="H28" t="s">
+      <c r="L28" t="s">
         <v>87</v>
       </c>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
         <v>88</v>
       </c>
-      <c r="K28" t="s">
+      <c r="O28" t="s">
         <v>89</v>
       </c>
-      <c r="L28" t="s">
+      <c r="P28" t="s">
         <v>90</v>
       </c>
-      <c r="M28" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="Q28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" t="s">
         <v>91</v>
       </c>
-      <c r="O28" t="s">
+      <c r="S28" t="s">
         <v>92</v>
       </c>
-      <c r="P28" t="s">
+      <c r="T28" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="U28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29">
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>325000000000000</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.82E-3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
         <v>93</v>
       </c>
-      <c r="C29">
+      <c r="G29">
         <v>17.295000000000002</v>
       </c>
-      <c r="D29" t="s">
+      <c r="H29" t="s">
         <v>94</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="1">
+      <c r="J29" s="1">
         <v>617000000000000</v>
       </c>
-      <c r="G29" s="1">
+      <c r="K29" s="1">
         <v>4.3899999999999999E-4</v>
       </c>
-      <c r="H29" t="s">
+      <c r="L29" t="s">
         <v>95</v>
       </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
         <v>67</v>
       </c>
-      <c r="K29" t="s">
+      <c r="O29" t="s">
         <v>68</v>
       </c>
-      <c r="L29" t="s">
+      <c r="P29" t="s">
         <v>96</v>
       </c>
-      <c r="M29" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="Q29" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" t="s">
         <v>70</v>
       </c>
-      <c r="O29" t="s">
+      <c r="S29" t="s">
         <v>71</v>
       </c>
-      <c r="P29" t="s">
+      <c r="T29" t="s">
         <v>97</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="U29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30">
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>325000000000000</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.8500000000000002E-3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
         <v>98</v>
       </c>
-      <c r="C30">
+      <c r="G30">
         <v>15.465</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>99</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="1">
+      <c r="J30" s="1">
         <v>617000000000000</v>
       </c>
-      <c r="G30" s="1">
+      <c r="K30" s="1">
         <v>2.3700000000000001E-3</v>
       </c>
-      <c r="H30" t="s">
+      <c r="L30" t="s">
         <v>100</v>
       </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" t="s">
         <v>67</v>
       </c>
-      <c r="K30" t="s">
+      <c r="O30" t="s">
         <v>68</v>
       </c>
-      <c r="L30" t="s">
+      <c r="P30" t="s">
         <v>96</v>
       </c>
-      <c r="M30" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="Q30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" t="s">
         <v>70</v>
       </c>
-      <c r="O30" t="s">
+      <c r="S30" t="s">
         <v>71</v>
       </c>
-      <c r="P30" t="s">
+      <c r="T30" t="s">
         <v>97</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="U30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31">
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>325000000000000</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9.6500000000000006E-3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>101</v>
       </c>
-      <c r="C31">
+      <c r="G31">
         <v>15.51</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="1">
+      <c r="J31" s="1">
         <v>617000000000000</v>
       </c>
-      <c r="G31" s="1">
+      <c r="K31" s="1">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
         <v>67</v>
       </c>
-      <c r="K31" t="s">
+      <c r="O31" t="s">
         <v>39</v>
       </c>
-      <c r="L31" t="s">
+      <c r="P31" t="s">
         <v>96</v>
       </c>
-      <c r="M31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="Q31" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" t="s">
         <v>70</v>
       </c>
-      <c r="O31" t="s">
+      <c r="S31" t="s">
         <v>71</v>
       </c>
-      <c r="P31" t="s">
+      <c r="T31" t="s">
         <v>97</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="U31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32">
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>240000000000000</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" t="s">
         <v>102</v>
       </c>
-      <c r="C32">
+      <c r="G32">
         <v>15.513999999999999</v>
       </c>
-      <c r="D32" t="s">
+      <c r="H32" t="s">
         <v>103</v>
       </c>
-      <c r="E32" t="s">
+      <c r="I32" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="1">
+      <c r="J32" s="1">
         <v>617000000000000</v>
       </c>
-      <c r="G32" s="1">
+      <c r="K32" s="1">
         <v>2.2599999999999999E-3</v>
       </c>
-      <c r="H32" t="s">
+      <c r="L32" t="s">
         <v>104</v>
       </c>
-      <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="M32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" t="s">
         <v>67</v>
       </c>
-      <c r="K32" t="s">
+      <c r="O32" t="s">
         <v>68</v>
       </c>
-      <c r="L32" t="s">
+      <c r="P32" t="s">
         <v>96</v>
       </c>
-      <c r="M32" t="s">
-        <v>33</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="Q32" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" t="s">
         <v>70</v>
       </c>
-      <c r="O32" t="s">
+      <c r="S32" t="s">
         <v>71</v>
       </c>
-      <c r="P32" t="s">
+      <c r="T32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
-      <c r="A33">
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>240000000000000</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33">
         <v>17</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" t="s">
         <v>105</v>
       </c>
-      <c r="C33">
+      <c r="G33">
         <v>16.414999999999999</v>
       </c>
-      <c r="D33" t="s">
+      <c r="H33" t="s">
         <v>106</v>
       </c>
-      <c r="E33" t="s">
+      <c r="I33" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="1">
+      <c r="J33" s="1">
         <v>477000000000000</v>
       </c>
-      <c r="G33" s="1">
+      <c r="K33" s="1">
         <v>9.859999999999999E-4</v>
       </c>
-      <c r="H33" t="s">
+      <c r="L33" t="s">
         <v>107</v>
       </c>
-      <c r="I33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="M33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" t="s">
         <v>67</v>
       </c>
-      <c r="K33" t="s">
+      <c r="O33" t="s">
         <v>68</v>
       </c>
-      <c r="L33" t="s">
+      <c r="P33" t="s">
         <v>108</v>
       </c>
-      <c r="M33" t="s">
-        <v>33</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="Q33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" t="s">
         <v>70</v>
       </c>
-      <c r="O33" t="s">
+      <c r="S33" t="s">
         <v>71</v>
       </c>
-      <c r="P33" t="s">
+      <c r="T33" t="s">
         <v>109</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="U33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
-      <c r="A34">
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>240000000000000</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
         <v>110</v>
       </c>
-      <c r="C34">
+      <c r="G34">
         <v>14.521000000000001</v>
       </c>
-      <c r="D34" t="s">
+      <c r="H34" t="s">
         <v>111</v>
       </c>
-      <c r="E34" t="s">
+      <c r="I34" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="1">
+      <c r="J34" s="1">
         <v>477000000000000</v>
       </c>
-      <c r="G34" s="1">
+      <c r="K34" s="1">
         <v>5.64E-3</v>
       </c>
-      <c r="H34" t="s">
+      <c r="L34" t="s">
         <v>112</v>
       </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" t="s">
         <v>67</v>
       </c>
-      <c r="K34" t="s">
+      <c r="O34" t="s">
         <v>68</v>
       </c>
-      <c r="L34" t="s">
+      <c r="P34" t="s">
         <v>108</v>
       </c>
-      <c r="M34" t="s">
-        <v>33</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" t="s">
         <v>70</v>
       </c>
-      <c r="O34" t="s">
+      <c r="S34" t="s">
         <v>71</v>
       </c>
-      <c r="P34" t="s">
+      <c r="T34" t="s">
         <v>113</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="U34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
-      <c r="A35">
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>182000000000000</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.32E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35">
         <v>19</v>
       </c>
-      <c r="B35" t="s">
+      <c r="F35" t="s">
         <v>114</v>
       </c>
-      <c r="C35">
+      <c r="G35">
         <v>14.521000000000001</v>
       </c>
-      <c r="E35" t="s">
+      <c r="I35" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="1">
+      <c r="J35" s="1">
         <v>477000000000000</v>
       </c>
-      <c r="G35" s="1">
+      <c r="K35" s="1">
         <v>5.64E-3</v>
       </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="s">
         <v>67</v>
       </c>
-      <c r="K35" t="s">
+      <c r="O35" t="s">
         <v>39</v>
       </c>
-      <c r="L35" t="s">
+      <c r="P35" t="s">
         <v>108</v>
       </c>
-      <c r="M35" t="s">
-        <v>33</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="Q35" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35" t="s">
         <v>70</v>
       </c>
-      <c r="O35" t="s">
+      <c r="S35" t="s">
         <v>71</v>
       </c>
-      <c r="P35" t="s">
+      <c r="T35" t="s">
         <v>109</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="U35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
-      <c r="A36">
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>182000000000000</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36">
         <v>20</v>
       </c>
-      <c r="B36" t="s">
+      <c r="F36" t="s">
         <v>115</v>
       </c>
-      <c r="C36">
+      <c r="G36">
         <v>14.557</v>
       </c>
-      <c r="D36" t="s">
+      <c r="H36" t="s">
         <v>116</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="1">
+      <c r="J36" s="1">
         <v>477000000000000</v>
       </c>
-      <c r="G36" s="1">
+      <c r="K36" s="1">
         <v>5.4599999999999996E-3</v>
       </c>
-      <c r="H36" t="s">
+      <c r="L36" t="s">
         <v>117</v>
       </c>
-      <c r="I36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
         <v>67</v>
       </c>
-      <c r="K36" t="s">
+      <c r="O36" t="s">
         <v>68</v>
       </c>
-      <c r="L36" t="s">
+      <c r="P36" t="s">
         <v>108</v>
       </c>
-      <c r="M36" t="s">
-        <v>33</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="Q36" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" t="s">
         <v>70</v>
       </c>
-      <c r="O36" t="s">
+      <c r="S36" t="s">
         <v>71</v>
       </c>
-      <c r="P36" t="s">
+      <c r="T36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
-      <c r="A37">
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>182000000000000</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37">
         <v>21</v>
       </c>
-      <c r="B37" t="s">
+      <c r="F37" t="s">
         <v>118</v>
       </c>
-      <c r="C37">
+      <c r="G37">
         <v>10.26</v>
       </c>
-      <c r="E37" t="s">
+      <c r="I37" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="1">
+      <c r="J37" s="1">
         <v>468000000000000</v>
       </c>
-      <c r="G37" s="1">
+      <c r="K37" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="I37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
         <v>120</v>
       </c>
-      <c r="K37" t="s">
+      <c r="O37" t="s">
         <v>39</v>
       </c>
-      <c r="L37" t="s">
+      <c r="P37" t="s">
         <v>121</v>
       </c>
-      <c r="M37" t="s">
-        <v>33</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="Q37" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37" t="s">
         <v>122</v>
       </c>
-      <c r="O37" t="s">
+      <c r="S37" t="s">
         <v>34</v>
       </c>
-      <c r="P37" t="s">
+      <c r="T37" t="s">
         <v>35</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="U37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
-      <c r="A38">
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>138000000000000</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38">
         <v>22</v>
       </c>
-      <c r="B38" t="s">
+      <c r="F38" t="s">
         <v>124</v>
       </c>
-      <c r="C38">
+      <c r="G38">
         <v>14.73</v>
       </c>
-      <c r="E38" t="s">
+      <c r="I38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="1">
+      <c r="J38" s="1">
         <v>465000000000000</v>
       </c>
-      <c r="G38" s="1">
+      <c r="K38" s="1">
         <v>3.9100000000000003E-3</v>
       </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" t="s">
         <v>81</v>
       </c>
-      <c r="K38" t="s">
+      <c r="O38" t="s">
         <v>39</v>
       </c>
-      <c r="L38" t="s">
+      <c r="P38" t="s">
         <v>125</v>
       </c>
-      <c r="M38" t="s">
-        <v>33</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="Q38" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" t="s">
         <v>83</v>
       </c>
-      <c r="O38" t="s">
+      <c r="S38" t="s">
         <v>84</v>
       </c>
-      <c r="P38" t="s">
+      <c r="T38" t="s">
         <v>35</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="U38" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
-      <c r="A39">
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>138000000000000</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.32E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>127</v>
       </c>
-      <c r="C39">
+      <c r="G39">
         <v>15.965</v>
       </c>
-      <c r="D39" t="s">
+      <c r="H39" t="s">
         <v>128</v>
       </c>
-      <c r="E39" t="s">
+      <c r="I39" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="1">
+      <c r="J39" s="1">
         <v>389000000000000</v>
       </c>
-      <c r="G39" s="1">
+      <c r="K39" s="1">
         <v>1.49E-3</v>
       </c>
-      <c r="H39" t="s">
+      <c r="L39" t="s">
         <v>129</v>
       </c>
-      <c r="I39" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="M39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" t="s">
         <v>67</v>
       </c>
-      <c r="K39" t="s">
+      <c r="O39" t="s">
         <v>68</v>
       </c>
-      <c r="L39" t="s">
+      <c r="P39" t="s">
         <v>130</v>
       </c>
-      <c r="M39" t="s">
-        <v>33</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="Q39" t="s">
+        <v>33</v>
+      </c>
+      <c r="R39" t="s">
         <v>70</v>
       </c>
-      <c r="O39" t="s">
+      <c r="S39" t="s">
         <v>71</v>
       </c>
-      <c r="P39" t="s">
+      <c r="T39" t="s">
         <v>131</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="U39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
-      <c r="A40">
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>138000000000000</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40">
         <v>24</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
         <v>132</v>
       </c>
-      <c r="C40">
+      <c r="G40">
         <v>14.077999999999999</v>
       </c>
-      <c r="D40" t="s">
+      <c r="H40" t="s">
         <v>111</v>
       </c>
-      <c r="E40" t="s">
+      <c r="I40" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="1">
+      <c r="J40" s="1">
         <v>389000000000000</v>
       </c>
-      <c r="G40" s="1">
+      <c r="K40" s="1">
         <v>8.4899999999999993E-3</v>
       </c>
-      <c r="H40" t="s">
+      <c r="L40" t="s">
         <v>133</v>
       </c>
-      <c r="I40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="M40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" t="s">
         <v>67</v>
       </c>
-      <c r="K40" t="s">
+      <c r="O40" t="s">
         <v>68</v>
       </c>
-      <c r="L40" t="s">
+      <c r="P40" t="s">
         <v>130</v>
       </c>
-      <c r="M40" t="s">
-        <v>33</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="Q40" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" t="s">
         <v>70</v>
       </c>
-      <c r="O40" t="s">
+      <c r="S40" t="s">
         <v>71</v>
       </c>
-      <c r="P40" t="s">
+      <c r="T40" t="s">
         <v>131</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="U40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="A41">
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>12600000000000</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
         <v>134</v>
       </c>
-      <c r="C41">
+      <c r="G41">
         <v>14.1</v>
       </c>
-      <c r="E41" t="s">
+      <c r="I41" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="1">
+      <c r="J41" s="1">
         <v>389000000000000</v>
       </c>
-      <c r="G41" s="1">
+      <c r="K41" s="1">
         <v>8.3199999999999993E-3</v>
       </c>
-      <c r="I41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" t="s">
         <v>67</v>
       </c>
-      <c r="K41" t="s">
+      <c r="O41" t="s">
         <v>39</v>
       </c>
-      <c r="L41" t="s">
+      <c r="P41" t="s">
         <v>130</v>
       </c>
-      <c r="M41" t="s">
-        <v>33</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="Q41" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" t="s">
         <v>70</v>
       </c>
-      <c r="O41" t="s">
+      <c r="S41" t="s">
         <v>71</v>
       </c>
-      <c r="P41" t="s">
+      <c r="T41" t="s">
         <v>131</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="U41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
-      <c r="A42">
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>3150000000000</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42">
         <v>26</v>
       </c>
-      <c r="B42" t="s">
+      <c r="F42" t="s">
         <v>135</v>
       </c>
-      <c r="C42">
+      <c r="G42">
         <v>14.099</v>
       </c>
-      <c r="D42" t="s">
+      <c r="H42" t="s">
         <v>136</v>
       </c>
-      <c r="E42" t="s">
+      <c r="I42" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="1">
+      <c r="J42" s="1">
         <v>389000000000000</v>
       </c>
-      <c r="G42" s="1">
+      <c r="K42" s="1">
         <v>8.3300000000000006E-3</v>
       </c>
-      <c r="H42" t="s">
+      <c r="L42" t="s">
         <v>137</v>
       </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
         <v>67</v>
       </c>
-      <c r="K42" t="s">
+      <c r="O42" t="s">
         <v>68</v>
       </c>
-      <c r="L42" t="s">
+      <c r="P42" t="s">
         <v>130</v>
       </c>
-      <c r="M42" t="s">
-        <v>33</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
+        <v>33</v>
+      </c>
+      <c r="R42" t="s">
         <v>70</v>
       </c>
-      <c r="O42" t="s">
+      <c r="S42" t="s">
         <v>71</v>
       </c>
-      <c r="P42" t="s">
+      <c r="T42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
-      <c r="A43">
+    <row r="43" spans="1:21">
+      <c r="A43" s="1">
+        <v>1720000000000</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43">
         <v>27</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
         <v>138</v>
       </c>
-      <c r="C43">
+      <c r="G43">
         <v>13.814</v>
       </c>
-      <c r="D43" t="s">
+      <c r="H43" t="s">
         <v>139</v>
       </c>
-      <c r="E43" t="s">
+      <c r="I43" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="1">
+      <c r="J43" s="1">
         <v>325000000000000</v>
       </c>
-      <c r="G43" s="1">
+      <c r="K43" s="1">
         <v>1.06E-2</v>
       </c>
-      <c r="H43" t="s">
+      <c r="L43" t="s">
         <v>140</v>
       </c>
-      <c r="I43" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" t="s">
         <v>67</v>
       </c>
-      <c r="K43" t="s">
+      <c r="O43" t="s">
         <v>68</v>
       </c>
-      <c r="L43" t="s">
+      <c r="P43" t="s">
         <v>141</v>
       </c>
-      <c r="M43" t="s">
-        <v>33</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="Q43" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" t="s">
         <v>70</v>
       </c>
-      <c r="O43" t="s">
+      <c r="S43" t="s">
         <v>71</v>
       </c>
-      <c r="P43" t="s">
+      <c r="T43" t="s">
         <v>131</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="U43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
-      <c r="A44">
+    <row r="44" spans="1:21">
+      <c r="A44" s="1">
+        <v>353000000000</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44">
         <v>28</v>
       </c>
-      <c r="B44" t="s">
+      <c r="F44" t="s">
         <v>142</v>
       </c>
-      <c r="C44">
+      <c r="G44">
         <v>15.73</v>
       </c>
-      <c r="D44" t="s">
+      <c r="H44" t="s">
         <v>143</v>
       </c>
-      <c r="E44" t="s">
+      <c r="I44" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="1">
+      <c r="J44" s="1">
         <v>325000000000000</v>
       </c>
-      <c r="G44" s="1">
+      <c r="K44" s="1">
         <v>1.82E-3</v>
       </c>
-      <c r="H44" t="s">
+      <c r="L44" t="s">
         <v>144</v>
       </c>
-      <c r="I44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" t="s">
         <v>67</v>
       </c>
-      <c r="K44" t="s">
+      <c r="O44" t="s">
         <v>68</v>
       </c>
-      <c r="L44" t="s">
+      <c r="P44" t="s">
         <v>141</v>
       </c>
-      <c r="M44" t="s">
-        <v>33</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="Q44" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" t="s">
         <v>70</v>
       </c>
-      <c r="O44" t="s">
+      <c r="S44" t="s">
         <v>71</v>
       </c>
-      <c r="P44" t="s">
+      <c r="T44" t="s">
         <v>131</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="U44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
-      <c r="A45">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="45" spans="1:21">
+      <c r="A45" s="1">
+        <v>222000000000</v>
+      </c>
+      <c r="B45" s="1">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
         <v>145</v>
       </c>
-      <c r="C45">
+      <c r="G45">
         <v>14.013</v>
       </c>
-      <c r="E45" t="s">
+      <c r="I45" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="1">
+      <c r="J45" s="1">
         <v>325000000000000</v>
       </c>
-      <c r="G45" s="1">
+      <c r="K45" s="1">
         <v>8.8500000000000002E-3</v>
       </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" t="s">
         <v>67</v>
       </c>
-      <c r="K45" t="s">
+      <c r="O45" t="s">
         <v>39</v>
       </c>
-      <c r="L45" t="s">
+      <c r="P45" t="s">
         <v>141</v>
       </c>
-      <c r="M45" t="s">
-        <v>33</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" t="s">
         <v>70</v>
       </c>
-      <c r="O45" t="s">
+      <c r="S45" t="s">
         <v>71</v>
       </c>
-      <c r="P45" t="s">
+      <c r="T45" t="s">
         <v>131</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="U45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="A46">
+    <row r="46" spans="1:21">
+      <c r="A46" s="1">
+        <v>150000000000</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46">
         <v>30</v>
       </c>
-      <c r="B46" t="s">
+      <c r="F46" t="s">
         <v>146</v>
       </c>
-      <c r="C46">
+      <c r="G46">
         <v>13.919</v>
       </c>
-      <c r="D46" t="s">
+      <c r="H46" t="s">
         <v>128</v>
       </c>
-      <c r="E46" t="s">
+      <c r="I46" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="1">
+      <c r="J46" s="1">
         <v>325000000000000</v>
       </c>
-      <c r="G46" s="1">
+      <c r="K46" s="1">
         <v>9.6500000000000006E-3</v>
       </c>
-      <c r="H46" t="s">
+      <c r="L46" t="s">
         <v>147</v>
       </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
         <v>67</v>
       </c>
-      <c r="K46" t="s">
+      <c r="O46" t="s">
         <v>68</v>
       </c>
-      <c r="L46" t="s">
+      <c r="P46" t="s">
         <v>141</v>
       </c>
-      <c r="M46" t="s">
-        <v>33</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="Q46" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" t="s">
         <v>70</v>
       </c>
-      <c r="O46" t="s">
+      <c r="S46" t="s">
         <v>71</v>
       </c>
-      <c r="P46" t="s">
+      <c r="T46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
-      <c r="A47">
+    <row r="47" spans="1:21">
+      <c r="A47" s="1">
+        <v>43000000000</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47">
         <v>31</v>
       </c>
-      <c r="B47" t="s">
+      <c r="F47" t="s">
         <v>148</v>
       </c>
-      <c r="C47">
+      <c r="G47">
         <v>12.933</v>
       </c>
-      <c r="D47" t="s">
+      <c r="H47" t="s">
         <v>94</v>
       </c>
-      <c r="E47" t="s">
+      <c r="I47" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="1">
+      <c r="J47" s="1">
         <v>240000000000000</v>
       </c>
-      <c r="G47" s="1">
+      <c r="K47" s="1">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="H47" t="s">
+      <c r="L47" t="s">
         <v>149</v>
       </c>
-      <c r="I47" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" t="s">
         <v>150</v>
       </c>
-      <c r="K47" t="s">
+      <c r="O47" t="s">
         <v>151</v>
       </c>
-      <c r="L47" t="s">
+      <c r="P47" t="s">
         <v>152</v>
       </c>
-      <c r="M47" t="s">
-        <v>33</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="Q47" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" t="s">
         <v>153</v>
       </c>
-      <c r="O47" t="s">
+      <c r="S47" t="s">
         <v>55</v>
       </c>
-      <c r="P47" t="s">
+      <c r="T47" t="s">
         <v>154</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="U47" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
-      <c r="A48">
+    <row r="48" spans="1:21">
+      <c r="A48" s="1">
+        <v>43000000000</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48">
         <v>32</v>
       </c>
-      <c r="B48" t="s">
+      <c r="F48" t="s">
         <v>155</v>
       </c>
-      <c r="C48">
+      <c r="G48">
         <v>12.253</v>
       </c>
-      <c r="D48" t="s">
+      <c r="H48" t="s">
         <v>156</v>
       </c>
-      <c r="E48" t="s">
+      <c r="I48" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="1">
+      <c r="J48" s="1">
         <v>240000000000000</v>
       </c>
-      <c r="G48" s="1">
+      <c r="K48" s="1">
         <v>0.02</v>
       </c>
-      <c r="H48" t="s">
+      <c r="L48" t="s">
         <v>157</v>
       </c>
-      <c r="I48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="M48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" t="s">
         <v>150</v>
       </c>
-      <c r="K48" t="s">
+      <c r="O48" t="s">
         <v>151</v>
       </c>
-      <c r="L48" t="s">
+      <c r="P48" t="s">
         <v>152</v>
       </c>
-      <c r="M48" t="s">
-        <v>33</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="Q48" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" t="s">
         <v>153</v>
       </c>
-      <c r="O48" t="s">
+      <c r="S48" t="s">
         <v>158</v>
       </c>
-      <c r="P48" t="s">
+      <c r="T48" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="U48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
-      <c r="A49">
-        <v>33</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>30000000000</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
         <v>159</v>
       </c>
-      <c r="C49">
+      <c r="G49">
         <v>12.695</v>
       </c>
-      <c r="D49" t="s">
+      <c r="H49" t="s">
         <v>160</v>
       </c>
-      <c r="E49" t="s">
+      <c r="I49" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="1">
+      <c r="J49" s="1">
         <v>240000000000000</v>
       </c>
-      <c r="G49" s="1">
+      <c r="K49" s="1">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="H49" t="s">
+      <c r="L49" t="s">
         <v>161</v>
       </c>
-      <c r="I49" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="M49" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" t="s">
         <v>150</v>
       </c>
-      <c r="K49" t="s">
+      <c r="O49" t="s">
         <v>151</v>
       </c>
-      <c r="L49" t="s">
+      <c r="P49" t="s">
         <v>152</v>
       </c>
-      <c r="M49" t="s">
-        <v>33</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="Q49" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" t="s">
         <v>153</v>
       </c>
-      <c r="O49" t="s">
+      <c r="S49" t="s">
         <v>34</v>
       </c>
-      <c r="P49" t="s">
+      <c r="T49" t="s">
         <v>162</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="U49" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
-      <c r="A50">
+    <row r="50" spans="1:21">
+      <c r="A50" s="1">
+        <v>22000000000</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.193</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50">
         <v>34</v>
       </c>
-      <c r="B50" t="s">
+      <c r="F50" t="s">
         <v>164</v>
       </c>
-      <c r="C50">
+      <c r="G50">
         <v>12.221</v>
       </c>
-      <c r="D50" t="s">
+      <c r="H50" t="s">
         <v>165</v>
       </c>
-      <c r="E50" t="s">
+      <c r="I50" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="1">
+      <c r="J50" s="1">
         <v>182000000000000</v>
       </c>
-      <c r="G50" s="1">
+      <c r="K50" s="1">
         <v>1.32E-2</v>
       </c>
-      <c r="H50" t="s">
+      <c r="L50" t="s">
         <v>166</v>
       </c>
-      <c r="I50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="M50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" t="s">
         <v>150</v>
       </c>
-      <c r="K50" t="s">
+      <c r="O50" t="s">
         <v>151</v>
       </c>
-      <c r="L50" t="s">
+      <c r="P50" t="s">
         <v>167</v>
       </c>
-      <c r="M50" t="s">
-        <v>33</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="Q50" t="s">
+        <v>33</v>
+      </c>
+      <c r="R50" t="s">
         <v>153</v>
       </c>
-      <c r="O50" t="s">
+      <c r="S50" t="s">
         <v>55</v>
       </c>
-      <c r="P50" t="s">
+      <c r="T50" t="s">
         <v>154</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="U50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
-      <c r="A51">
+    <row r="51" spans="1:21">
+      <c r="A51" s="1">
+        <v>22000000000</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51">
         <v>35</v>
       </c>
-      <c r="B51" t="s">
+      <c r="F51" t="s">
         <v>168</v>
       </c>
-      <c r="C51">
+      <c r="G51">
         <v>11.196</v>
       </c>
-      <c r="D51" t="s">
+      <c r="H51" t="s">
         <v>169</v>
       </c>
-      <c r="E51" t="s">
+      <c r="I51" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="1">
+      <c r="J51" s="1">
         <v>182000000000000</v>
       </c>
-      <c r="G51" s="1">
+      <c r="K51" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H51" t="s">
+      <c r="L51" t="s">
         <v>170</v>
       </c>
-      <c r="I51" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="M51" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" t="s">
         <v>150</v>
       </c>
-      <c r="K51" t="s">
+      <c r="O51" t="s">
         <v>151</v>
       </c>
-      <c r="L51" t="s">
+      <c r="P51" t="s">
         <v>167</v>
       </c>
-      <c r="M51" t="s">
-        <v>33</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="Q51" t="s">
+        <v>33</v>
+      </c>
+      <c r="R51" t="s">
         <v>153</v>
       </c>
-      <c r="O51" t="s">
+      <c r="S51" t="s">
         <v>158</v>
       </c>
-      <c r="P51" t="s">
+      <c r="T51" t="s">
         <v>35</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="U51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
-      <c r="A52">
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>15000000000</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52">
         <v>36</v>
       </c>
-      <c r="B52" t="s">
+      <c r="F52" t="s">
         <v>171</v>
       </c>
-      <c r="C52">
+      <c r="G52">
         <v>11.956</v>
       </c>
-      <c r="D52" t="s">
+      <c r="H52" t="s">
         <v>172</v>
       </c>
-      <c r="E52" t="s">
+      <c r="I52" t="s">
         <v>45</v>
       </c>
-      <c r="F52" s="1">
+      <c r="J52" s="1">
         <v>182000000000000</v>
       </c>
-      <c r="G52" s="1">
+      <c r="K52" s="1">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="H52" t="s">
+      <c r="L52" t="s">
         <v>173</v>
       </c>
-      <c r="I52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="M52" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" t="s">
         <v>150</v>
       </c>
-      <c r="K52" t="s">
+      <c r="O52" t="s">
         <v>151</v>
       </c>
-      <c r="L52" t="s">
+      <c r="P52" t="s">
         <v>167</v>
       </c>
-      <c r="M52" t="s">
-        <v>33</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="Q52" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" t="s">
         <v>153</v>
       </c>
-      <c r="O52" t="s">
+      <c r="S52" t="s">
         <v>34</v>
       </c>
-      <c r="P52" t="s">
+      <c r="T52" t="s">
         <v>162</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="U52" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
-      <c r="A53">
+    <row r="53" spans="1:21">
+      <c r="A53" s="1">
+        <v>15000000000</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53">
         <v>37</v>
       </c>
-      <c r="B53" t="s">
+      <c r="F53" t="s">
         <v>174</v>
       </c>
-      <c r="C53">
+      <c r="G53">
         <v>11.547000000000001</v>
       </c>
-      <c r="D53" t="s">
+      <c r="H53" t="s">
         <v>175</v>
       </c>
-      <c r="E53" t="s">
+      <c r="I53" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="1">
+      <c r="J53" s="1">
         <v>138000000000000</v>
       </c>
-      <c r="G53" s="1">
+      <c r="K53" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="H53" t="s">
+      <c r="L53" t="s">
         <v>176</v>
       </c>
-      <c r="I53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="M53" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" t="s">
         <v>150</v>
       </c>
-      <c r="K53" t="s">
+      <c r="O53" t="s">
         <v>151</v>
       </c>
-      <c r="L53" t="s">
+      <c r="P53" t="s">
         <v>177</v>
       </c>
-      <c r="M53" t="s">
-        <v>33</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="Q53" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" t="s">
         <v>153</v>
       </c>
-      <c r="O53" t="s">
+      <c r="S53" t="s">
         <v>34</v>
       </c>
-      <c r="P53" t="s">
+      <c r="T53" t="s">
         <v>162</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="U53" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
-      <c r="A54">
+    <row r="54" spans="1:21">
+      <c r="A54" s="1">
+        <v>15000000000</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54">
         <v>38</v>
       </c>
-      <c r="B54" t="s">
+      <c r="F54" t="s">
         <v>178</v>
       </c>
-      <c r="C54">
+      <c r="G54">
         <v>11.762</v>
       </c>
-      <c r="D54" t="s">
+      <c r="H54" t="s">
         <v>179</v>
       </c>
-      <c r="E54" t="s">
+      <c r="I54" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="1">
+      <c r="J54" s="1">
         <v>138000000000000</v>
       </c>
-      <c r="G54" s="1">
+      <c r="K54" s="1">
         <v>1.32E-2</v>
       </c>
-      <c r="H54" t="s">
+      <c r="L54" t="s">
         <v>180</v>
       </c>
-      <c r="I54" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="M54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" t="s">
         <v>150</v>
       </c>
-      <c r="K54" t="s">
+      <c r="O54" t="s">
         <v>151</v>
       </c>
-      <c r="L54" t="s">
+      <c r="P54" t="s">
         <v>177</v>
       </c>
-      <c r="M54" t="s">
-        <v>33</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="Q54" t="s">
+        <v>33</v>
+      </c>
+      <c r="R54" t="s">
         <v>153</v>
       </c>
-      <c r="O54" t="s">
+      <c r="S54" t="s">
         <v>55</v>
       </c>
-      <c r="P54" t="s">
+      <c r="T54" t="s">
         <v>154</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="U54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
-      <c r="A55">
+    <row r="55" spans="1:21">
+      <c r="A55" s="1">
+        <v>8400000000</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.501</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55">
         <v>39</v>
       </c>
-      <c r="B55" t="s">
+      <c r="F55" t="s">
         <v>181</v>
       </c>
-      <c r="C55">
+      <c r="G55">
         <v>11.141999999999999</v>
       </c>
-      <c r="D55" t="s">
+      <c r="H55" t="s">
         <v>182</v>
       </c>
-      <c r="E55" t="s">
+      <c r="I55" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="1">
+      <c r="J55" s="1">
         <v>138000000000000</v>
       </c>
-      <c r="G55" s="1">
+      <c r="K55" s="1">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="H55" t="s">
+      <c r="L55" t="s">
         <v>183</v>
       </c>
-      <c r="I55" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="M55" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" t="s">
         <v>150</v>
       </c>
-      <c r="K55" t="s">
+      <c r="O55" t="s">
         <v>151</v>
       </c>
-      <c r="L55" t="s">
+      <c r="P55" t="s">
         <v>177</v>
       </c>
-      <c r="M55" t="s">
-        <v>33</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="Q55" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" t="s">
         <v>153</v>
       </c>
-      <c r="O55" t="s">
+      <c r="S55" t="s">
         <v>158</v>
       </c>
-      <c r="P55" t="s">
+      <c r="T55" t="s">
         <v>35</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="U55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
-      <c r="A56">
+    <row r="56" spans="1:21">
+      <c r="A56" s="1">
+        <v>8400000000</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56">
         <v>40</v>
       </c>
-      <c r="B56" t="s">
+      <c r="F56" t="s">
         <v>184</v>
       </c>
-      <c r="C56">
+      <c r="G56">
         <v>11</v>
       </c>
-      <c r="D56" t="s">
+      <c r="H56" t="s">
         <v>185</v>
       </c>
-      <c r="E56" t="s">
+      <c r="I56" t="s">
         <v>186</v>
       </c>
-      <c r="F56" s="1">
+      <c r="J56" s="1">
         <v>12600000000000</v>
       </c>
-      <c r="G56" s="1">
+      <c r="K56" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H56" t="s">
+      <c r="L56" t="s">
         <v>187</v>
       </c>
-      <c r="I56" t="s">
-        <v>29</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="M56" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" t="s">
         <v>188</v>
       </c>
-      <c r="K56" t="s">
+      <c r="O56" t="s">
         <v>48</v>
       </c>
-      <c r="L56" t="s">
+      <c r="P56" t="s">
         <v>189</v>
       </c>
-      <c r="M56" t="s">
-        <v>33</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="Q56" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" t="s">
         <v>190</v>
       </c>
-      <c r="O56" t="s">
+      <c r="S56" t="s">
         <v>34</v>
       </c>
-      <c r="P56" t="s">
+      <c r="T56" t="s">
         <v>35</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="U56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
-      <c r="A57">
+    <row r="57" spans="1:21">
+      <c r="A57" s="1">
+        <v>8300000000</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57">
         <v>41</v>
       </c>
-      <c r="B57" t="s">
+      <c r="F57" t="s">
         <v>191</v>
       </c>
-      <c r="D57" t="s">
+      <c r="H57" t="s">
         <v>192</v>
       </c>
-      <c r="E57" t="s">
+      <c r="I57" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="1">
+      <c r="J57" s="1">
         <v>4930000000000</v>
       </c>
-      <c r="H57" s="1">
+      <c r="L57" s="1">
         <v>0.156</v>
       </c>
-      <c r="I57" t="s">
-        <v>29</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="M57" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" t="s">
         <v>188</v>
       </c>
-      <c r="K57" t="s">
+      <c r="O57" t="s">
         <v>193</v>
       </c>
-      <c r="L57" t="s">
+      <c r="P57" t="s">
         <v>194</v>
       </c>
-      <c r="M57" t="s">
-        <v>33</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="Q57" t="s">
+        <v>33</v>
+      </c>
+      <c r="R57" t="s">
         <v>190</v>
       </c>
-      <c r="O57" t="s">
+      <c r="S57" t="s">
         <v>34</v>
       </c>
-      <c r="P57" t="s">
+      <c r="T57" t="s">
         <v>35</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="U57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
-      <c r="A58">
+    <row r="58" spans="1:21">
+      <c r="A58" s="1">
+        <v>8300000000</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58">
         <v>42</v>
       </c>
-      <c r="B58" t="s">
+      <c r="F58" t="s">
         <v>195</v>
       </c>
-      <c r="C58">
+      <c r="G58">
         <v>158</v>
       </c>
-      <c r="D58" t="s">
+      <c r="H58" t="s">
         <v>196</v>
       </c>
-      <c r="E58" t="s">
+      <c r="I58" t="s">
         <v>186</v>
       </c>
-      <c r="F58" s="1">
+      <c r="J58" s="1">
         <v>3150000000000</v>
       </c>
-      <c r="G58" s="1">
+      <c r="K58" s="1">
         <v>0.158</v>
       </c>
-      <c r="H58" t="s">
+      <c r="L58" t="s">
         <v>197</v>
       </c>
-      <c r="I58" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="M58" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" t="s">
         <v>188</v>
       </c>
-      <c r="K58" t="s">
+      <c r="O58" t="s">
         <v>48</v>
       </c>
-      <c r="L58" t="s">
+      <c r="P58" t="s">
         <v>198</v>
       </c>
-      <c r="M58" t="s">
-        <v>33</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="Q58" t="s">
+        <v>33</v>
+      </c>
+      <c r="R58" t="s">
         <v>190</v>
       </c>
-      <c r="O58" t="s">
+      <c r="S58" t="s">
         <v>34</v>
       </c>
-      <c r="P58" t="s">
+      <c r="T58" t="s">
         <v>35</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="U58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
-      <c r="A59">
+    <row r="59" spans="1:21">
+      <c r="A59" s="1">
+        <v>5000000000</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59">
         <v>43</v>
       </c>
-      <c r="B59" t="s">
+      <c r="F59" t="s">
         <v>199</v>
       </c>
-      <c r="C59">
+      <c r="G59">
         <v>363</v>
       </c>
-      <c r="D59" t="s">
+      <c r="H59" t="s">
         <v>200</v>
       </c>
-      <c r="E59" t="s">
+      <c r="I59" t="s">
         <v>186</v>
       </c>
-      <c r="F59" s="1">
+      <c r="J59" s="1">
         <v>1720000000000</v>
       </c>
-      <c r="G59" s="1">
+      <c r="K59" s="1">
         <v>0.36299999999999999</v>
       </c>
-      <c r="H59" t="s">
+      <c r="L59" t="s">
         <v>201</v>
       </c>
-      <c r="I59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="M59" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" t="s">
         <v>188</v>
       </c>
-      <c r="K59" t="s">
+      <c r="O59" t="s">
         <v>48</v>
       </c>
-      <c r="L59" t="s">
+      <c r="P59" t="s">
         <v>202</v>
       </c>
-      <c r="M59" t="s">
-        <v>33</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="Q59" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" t="s">
         <v>190</v>
       </c>
-      <c r="O59" t="s">
+      <c r="S59" t="s">
         <v>34</v>
       </c>
-      <c r="P59" t="s">
+      <c r="T59" t="s">
         <v>35</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="U59" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
-      <c r="A60">
+    <row r="60" spans="1:21">
+      <c r="A60" s="1">
+        <v>5000000000</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60">
         <v>44</v>
       </c>
-      <c r="B60" t="s">
+      <c r="F60" t="s">
         <v>203</v>
       </c>
-      <c r="C60">
+      <c r="G60">
         <v>86.1</v>
       </c>
-      <c r="D60" t="s">
+      <c r="H60" t="s">
         <v>204</v>
       </c>
-      <c r="E60" t="s">
+      <c r="I60" t="s">
         <v>186</v>
       </c>
-      <c r="F60" s="1">
+      <c r="J60" s="1">
         <v>353000000000</v>
       </c>
-      <c r="G60" s="1">
+      <c r="K60" s="1">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="H60" t="s">
+      <c r="L60" t="s">
         <v>205</v>
       </c>
-      <c r="I60" t="s">
-        <v>29</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="M60" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" t="s">
         <v>188</v>
       </c>
-      <c r="K60" t="s">
+      <c r="O60" t="s">
         <v>48</v>
       </c>
-      <c r="L60" t="s">
+      <c r="P60" t="s">
         <v>206</v>
       </c>
-      <c r="M60" t="s">
-        <v>33</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="Q60" t="s">
+        <v>33</v>
+      </c>
+      <c r="R60" t="s">
         <v>190</v>
       </c>
-      <c r="O60" t="s">
+      <c r="S60" t="s">
         <v>34</v>
       </c>
-      <c r="P60" t="s">
+      <c r="T60" t="s">
         <v>35</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="U60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
-      <c r="A61">
+    <row r="61" spans="1:21">
+      <c r="A61" s="1">
+        <v>5000000000</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61">
         <v>45</v>
       </c>
-      <c r="B61" t="s">
+      <c r="F61" t="s">
         <v>207</v>
       </c>
-      <c r="C61">
+      <c r="G61">
         <v>84.4</v>
       </c>
-      <c r="D61" t="s">
+      <c r="H61" t="s">
         <v>208</v>
       </c>
-      <c r="E61" t="s">
+      <c r="I61" t="s">
         <v>186</v>
       </c>
-      <c r="F61" s="1">
+      <c r="J61" s="1">
         <v>222000000000</v>
       </c>
-      <c r="G61" s="1">
+      <c r="K61" s="1">
         <v>8.4400000000000003E-2</v>
       </c>
-      <c r="H61" t="s">
+      <c r="L61" t="s">
         <v>209</v>
       </c>
-      <c r="I61" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="M61" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" t="s">
         <v>188</v>
       </c>
-      <c r="K61" t="s">
+      <c r="O61" t="s">
         <v>48</v>
       </c>
-      <c r="L61" t="s">
+      <c r="P61" t="s">
         <v>210</v>
       </c>
-      <c r="M61" t="s">
-        <v>33</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="Q61" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" t="s">
         <v>190</v>
       </c>
-      <c r="O61" t="s">
+      <c r="S61" t="s">
         <v>34</v>
       </c>
-      <c r="P61" t="s">
+      <c r="T61" t="s">
         <v>35</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="U61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
-      <c r="A62">
+    <row r="62" spans="1:21">
+      <c r="A62" s="1">
+        <v>4890000000</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62">
         <v>46</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F62" t="s">
         <v>211</v>
       </c>
-      <c r="C62">
+      <c r="G62">
         <v>149.19999999999999</v>
       </c>
-      <c r="D62" t="s">
+      <c r="H62" t="s">
         <v>212</v>
       </c>
-      <c r="E62" t="s">
+      <c r="I62" t="s">
         <v>186</v>
       </c>
-      <c r="F62" s="1">
+      <c r="J62" s="1">
         <v>150000000000</v>
       </c>
-      <c r="G62" s="1">
+      <c r="K62" s="1">
         <v>0.14899999999999999</v>
       </c>
-      <c r="H62" t="s">
+      <c r="L62" t="s">
         <v>213</v>
       </c>
-      <c r="I62" t="s">
-        <v>29</v>
-      </c>
-      <c r="J62" t="s">
+      <c r="M62" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" t="s">
         <v>188</v>
       </c>
-      <c r="K62" t="s">
+      <c r="O62" t="s">
         <v>48</v>
       </c>
-      <c r="L62" t="s">
+      <c r="P62" t="s">
         <v>214</v>
       </c>
-      <c r="M62" t="s">
-        <v>33</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="Q62" t="s">
+        <v>33</v>
+      </c>
+      <c r="R62" t="s">
         <v>190</v>
       </c>
-      <c r="O62" t="s">
+      <c r="S62" t="s">
         <v>34</v>
       </c>
-      <c r="P62" t="s">
+      <c r="T62" t="s">
         <v>35</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="U62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
-      <c r="A63">
+    <row r="63" spans="1:21">
+      <c r="A63" s="1">
+        <v>4850000000</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63">
         <v>47</v>
       </c>
-      <c r="B63" t="s">
+      <c r="F63" t="s">
         <v>215</v>
       </c>
-      <c r="C63">
+      <c r="G63">
         <v>146</v>
       </c>
-      <c r="E63" t="s">
+      <c r="I63" t="s">
         <v>186</v>
       </c>
-      <c r="F63" s="1">
+      <c r="J63" s="1">
         <v>43000000000</v>
       </c>
-      <c r="G63" s="1">
+      <c r="K63" s="1">
         <v>0.14599999999999999</v>
       </c>
-      <c r="I63" t="s">
-        <v>29</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="M63" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" t="s">
         <v>216</v>
       </c>
-      <c r="K63" t="s">
+      <c r="O63" t="s">
         <v>39</v>
       </c>
-      <c r="L63" t="s">
+      <c r="P63" t="s">
         <v>217</v>
       </c>
-      <c r="M63" t="s">
-        <v>33</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="Q63" t="s">
+        <v>33</v>
+      </c>
+      <c r="S63" t="s">
         <v>218</v>
       </c>
-      <c r="P63" t="s">
+      <c r="T63" t="s">
         <v>219</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="U63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
-      <c r="A64">
+    <row r="64" spans="1:21">
+      <c r="A64" s="1">
+        <v>4850000000</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64">
         <v>48</v>
       </c>
-      <c r="B64" t="s">
+      <c r="F64" t="s">
         <v>215</v>
       </c>
-      <c r="C64">
+      <c r="G64">
         <v>153</v>
       </c>
-      <c r="E64" t="s">
+      <c r="I64" t="s">
         <v>186</v>
       </c>
-      <c r="F64" s="1">
+      <c r="J64" s="1">
         <v>43000000000</v>
       </c>
-      <c r="G64" s="1">
+      <c r="K64" s="1">
         <v>0.153</v>
       </c>
-      <c r="I64" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="M64" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" t="s">
         <v>216</v>
       </c>
-      <c r="K64" t="s">
+      <c r="O64" t="s">
         <v>39</v>
       </c>
-      <c r="L64" t="s">
+      <c r="P64" t="s">
         <v>217</v>
       </c>
-      <c r="M64" t="s">
-        <v>33</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="Q64" t="s">
+        <v>33</v>
+      </c>
+      <c r="S64" t="s">
         <v>218</v>
       </c>
-      <c r="P64" t="s">
+      <c r="T64" t="s">
         <v>220</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="U64" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
-      <c r="A65">
+    <row r="65" spans="1:21">
+      <c r="A65" s="1">
+        <v>4830000000</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65">
         <v>49</v>
       </c>
-      <c r="B65" t="s">
+      <c r="F65" t="s">
         <v>221</v>
       </c>
-      <c r="C65">
+      <c r="G65">
         <v>0.182</v>
       </c>
-      <c r="D65" t="s">
+      <c r="H65" t="s">
         <v>103</v>
       </c>
-      <c r="E65" t="s">
+      <c r="I65" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="1">
+      <c r="J65" s="1">
         <v>30000000000</v>
       </c>
-      <c r="G65" s="1">
+      <c r="K65" s="1">
         <v>0.182</v>
       </c>
-      <c r="H65" t="s">
+      <c r="L65" t="s">
         <v>223</v>
       </c>
-      <c r="I65" t="s">
-        <v>29</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="M65" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" t="s">
         <v>224</v>
       </c>
-      <c r="K65" t="s">
+      <c r="O65" t="s">
         <v>48</v>
       </c>
-      <c r="L65" t="s">
+      <c r="P65" t="s">
         <v>225</v>
       </c>
-      <c r="M65" t="s">
-        <v>33</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="Q65" t="s">
+        <v>33</v>
+      </c>
+      <c r="R65" t="s">
         <v>226</v>
       </c>
-      <c r="O65" t="s">
+      <c r="S65" t="s">
         <v>34</v>
       </c>
-      <c r="P65" t="s">
+      <c r="T65" t="s">
         <v>35</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="U65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
-      <c r="A66">
+    <row r="66" spans="1:21">
+      <c r="A66" s="1">
+        <v>1400000000</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66">
         <v>50</v>
       </c>
-      <c r="B66" t="s">
+      <c r="F66" t="s">
         <v>227</v>
       </c>
-      <c r="C66">
+      <c r="G66">
         <v>193</v>
       </c>
-      <c r="E66" t="s">
+      <c r="I66" t="s">
         <v>186</v>
       </c>
-      <c r="F66" s="1">
+      <c r="J66" s="1">
         <v>22000000000</v>
       </c>
-      <c r="G66" s="1">
+      <c r="K66" s="1">
         <v>0.193</v>
       </c>
-      <c r="I66" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="M66" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" t="s">
         <v>216</v>
       </c>
-      <c r="K66" t="s">
+      <c r="O66" t="s">
         <v>39</v>
       </c>
-      <c r="L66" t="s">
+      <c r="P66" t="s">
         <v>228</v>
       </c>
-      <c r="M66" t="s">
-        <v>33</v>
-      </c>
-      <c r="O66" t="s">
+      <c r="Q66" t="s">
+        <v>33</v>
+      </c>
+      <c r="S66" t="s">
         <v>218</v>
       </c>
-      <c r="P66" t="s">
+      <c r="T66" t="s">
         <v>220</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="U66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
-      <c r="A67">
+    <row r="67" spans="1:21">
+      <c r="A67" s="1">
+        <v>1400000000</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67">
         <v>51</v>
       </c>
-      <c r="B67" t="s">
+      <c r="F67" t="s">
         <v>227</v>
       </c>
-      <c r="C67">
+      <c r="G67">
         <v>200</v>
       </c>
-      <c r="E67" t="s">
+      <c r="I67" t="s">
         <v>186</v>
       </c>
-      <c r="F67" s="1">
+      <c r="J67" s="1">
         <v>22000000000</v>
       </c>
-      <c r="G67" s="1">
+      <c r="K67" s="1">
         <v>0.2</v>
       </c>
-      <c r="I67" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="M67" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" t="s">
         <v>216</v>
       </c>
-      <c r="K67" t="s">
+      <c r="O67" t="s">
         <v>39</v>
       </c>
-      <c r="L67" t="s">
+      <c r="P67" t="s">
         <v>228</v>
       </c>
-      <c r="M67" t="s">
-        <v>33</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="Q67" t="s">
+        <v>33</v>
+      </c>
+      <c r="S67" t="s">
         <v>218</v>
       </c>
-      <c r="P67" t="s">
+      <c r="T67" t="s">
         <v>219</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="U67" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
-      <c r="A68">
+    <row r="68" spans="1:21">
+      <c r="A68" s="1">
+        <v>1400000000</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68">
         <v>52</v>
       </c>
-      <c r="B68" t="s">
+      <c r="F68" t="s">
         <v>229</v>
       </c>
-      <c r="C68">
+      <c r="G68">
         <v>204</v>
       </c>
-      <c r="E68" t="s">
+      <c r="I68" t="s">
         <v>186</v>
       </c>
-      <c r="F68" s="1">
+      <c r="J68" s="1">
         <v>15000000000</v>
       </c>
-      <c r="G68" s="1">
+      <c r="K68" s="1">
         <v>0.20399999999999999</v>
       </c>
-      <c r="I68" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" t="s">
+      <c r="M68" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" t="s">
         <v>216</v>
       </c>
-      <c r="K68" t="s">
+      <c r="O68" t="s">
         <v>39</v>
       </c>
-      <c r="L68" t="s">
+      <c r="P68" t="s">
         <v>230</v>
       </c>
-      <c r="M68" t="s">
-        <v>33</v>
-      </c>
-      <c r="O68" t="s">
+      <c r="Q68" t="s">
+        <v>33</v>
+      </c>
+      <c r="S68" t="s">
         <v>218</v>
       </c>
-      <c r="P68" t="s">
+      <c r="T68" t="s">
         <v>220</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="U68" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
-      <c r="A69">
+    <row r="69" spans="1:21">
+      <c r="A69" s="1">
+        <v>1400000000</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69">
         <v>53</v>
       </c>
-      <c r="B69" t="s">
+      <c r="F69" t="s">
         <v>229</v>
       </c>
-      <c r="C69">
+      <c r="G69">
         <v>226</v>
       </c>
-      <c r="E69" t="s">
+      <c r="I69" t="s">
         <v>186</v>
       </c>
-      <c r="F69" s="1">
+      <c r="J69" s="1">
         <v>15000000000</v>
       </c>
-      <c r="G69" s="1">
+      <c r="K69" s="1">
         <v>0.22600000000000001</v>
       </c>
-      <c r="I69" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="M69" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" t="s">
         <v>216</v>
       </c>
-      <c r="K69" t="s">
+      <c r="O69" t="s">
         <v>39</v>
       </c>
-      <c r="L69" t="s">
+      <c r="P69" t="s">
         <v>230</v>
       </c>
-      <c r="M69" t="s">
-        <v>33</v>
-      </c>
-      <c r="O69" t="s">
+      <c r="Q69" t="s">
+        <v>33</v>
+      </c>
+      <c r="S69" t="s">
         <v>218</v>
       </c>
-      <c r="P69" t="s">
+      <c r="T69" t="s">
         <v>219</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="U69" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
-      <c r="A70">
+    <row r="70" spans="1:21">
+      <c r="A70" s="1">
+        <v>408000000</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70">
         <v>54</v>
       </c>
-      <c r="B70" t="s">
+      <c r="F70" t="s">
         <v>231</v>
       </c>
-      <c r="C70">
+      <c r="G70">
         <v>0.221</v>
       </c>
-      <c r="D70" t="s">
+      <c r="H70" t="s">
         <v>111</v>
       </c>
-      <c r="E70" t="s">
+      <c r="I70" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="1">
+      <c r="J70" s="1">
         <v>15000000000</v>
       </c>
-      <c r="G70" s="1">
+      <c r="K70" s="1">
         <v>0.221</v>
       </c>
-      <c r="H70" t="s">
+      <c r="L70" t="s">
         <v>233</v>
       </c>
-      <c r="I70" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" t="s">
+      <c r="M70" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" t="s">
         <v>234</v>
       </c>
-      <c r="K70" t="s">
+      <c r="O70" t="s">
         <v>193</v>
       </c>
-      <c r="L70" t="s">
+      <c r="P70" t="s">
         <v>235</v>
       </c>
-      <c r="M70" t="s">
-        <v>33</v>
-      </c>
-      <c r="N70" t="s">
+      <c r="Q70" t="s">
+        <v>33</v>
+      </c>
+      <c r="R70" t="s">
         <v>122</v>
       </c>
-      <c r="O70" t="s">
+      <c r="S70" t="s">
         <v>34</v>
       </c>
-      <c r="P70" t="s">
+      <c r="T70" t="s">
         <v>35</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="U70" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
-      <c r="A71">
+    <row r="71" spans="1:21">
+      <c r="A71" s="1">
+        <v>365000000</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71">
         <v>55</v>
       </c>
-      <c r="B71" t="s">
+      <c r="F71" t="s">
         <v>236</v>
       </c>
-      <c r="C71">
+      <c r="G71">
         <v>501</v>
       </c>
-      <c r="E71" t="s">
+      <c r="I71" t="s">
         <v>237</v>
       </c>
-      <c r="F71" s="1">
+      <c r="J71" s="1">
         <v>8400000000</v>
       </c>
-      <c r="G71" s="1">
+      <c r="K71" s="1">
         <v>0.501</v>
       </c>
-      <c r="I71" t="s">
-        <v>29</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="M71" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" t="s">
         <v>238</v>
       </c>
-      <c r="K71" t="s">
+      <c r="O71" t="s">
         <v>39</v>
       </c>
-      <c r="L71" t="s">
+      <c r="P71" t="s">
         <v>239</v>
       </c>
-      <c r="M71" t="s">
-        <v>33</v>
-      </c>
-      <c r="N71" t="s">
+      <c r="Q71" t="s">
+        <v>33</v>
+      </c>
+      <c r="R71" t="s">
         <v>240</v>
       </c>
-      <c r="O71" t="s">
+      <c r="S71" t="s">
         <v>34</v>
       </c>
-      <c r="P71" t="s">
+      <c r="T71" t="s">
         <v>241</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="U71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
-      <c r="A72">
+    <row r="72" spans="1:21">
+      <c r="A72" s="1">
+        <v>151000000</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72">
         <v>56</v>
       </c>
-      <c r="B72" t="s">
+      <c r="F72" t="s">
         <v>242</v>
       </c>
-      <c r="C72">
+      <c r="G72">
         <v>499.5</v>
       </c>
-      <c r="E72" t="s">
+      <c r="I72" t="s">
         <v>186</v>
       </c>
-      <c r="F72" s="1">
+      <c r="J72" s="1">
         <v>8400000000</v>
       </c>
-      <c r="G72" s="1">
+      <c r="K72" s="1">
         <v>0.5</v>
       </c>
-      <c r="I72" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" t="s">
+      <c r="M72" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" t="s">
         <v>243</v>
       </c>
-      <c r="K72" t="s">
+      <c r="O72" t="s">
         <v>39</v>
       </c>
-      <c r="L72" t="s">
+      <c r="P72" t="s">
         <v>239</v>
       </c>
-      <c r="M72" t="s">
-        <v>33</v>
-      </c>
-      <c r="N72" t="s">
+      <c r="Q72" t="s">
+        <v>33</v>
+      </c>
+      <c r="R72" t="s">
         <v>122</v>
       </c>
-      <c r="O72" t="s">
+      <c r="S72" t="s">
         <v>34</v>
       </c>
-      <c r="P72" t="s">
+      <c r="T72" t="s">
         <v>35</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="U72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
-      <c r="A73">
+    <row r="73" spans="1:21">
+      <c r="E73">
         <v>57</v>
       </c>
-      <c r="B73" t="s">
+      <c r="F73" t="s">
         <v>244</v>
       </c>
-      <c r="C73">
+      <c r="G73">
         <v>263</v>
       </c>
-      <c r="E73" t="s">
+      <c r="I73" t="s">
         <v>186</v>
       </c>
-      <c r="F73" s="1">
+      <c r="J73" s="1">
         <v>8300000000</v>
       </c>
-      <c r="G73" s="1">
+      <c r="K73" s="1">
         <v>0.26300000000000001</v>
       </c>
-      <c r="I73" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="M73" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" t="s">
         <v>216</v>
       </c>
-      <c r="K73" t="s">
+      <c r="O73" t="s">
         <v>39</v>
       </c>
-      <c r="L73" t="s">
+      <c r="P73" t="s">
         <v>245</v>
       </c>
-      <c r="M73" t="s">
-        <v>33</v>
-      </c>
-      <c r="O73" t="s">
+      <c r="Q73" t="s">
+        <v>33</v>
+      </c>
+      <c r="S73" t="s">
         <v>218</v>
       </c>
-      <c r="P73" t="s">
+      <c r="T73" t="s">
         <v>219</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="U73" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
-      <c r="A74">
+    <row r="74" spans="1:21">
+      <c r="E74">
         <v>58</v>
       </c>
-      <c r="B74" t="s">
+      <c r="F74" t="s">
         <v>244</v>
       </c>
-      <c r="C74">
+      <c r="G74">
         <v>222</v>
       </c>
-      <c r="E74" t="s">
+      <c r="I74" t="s">
         <v>186</v>
       </c>
-      <c r="F74" s="1">
+      <c r="J74" s="1">
         <v>8300000000</v>
       </c>
-      <c r="G74" s="1">
+      <c r="K74" s="1">
         <v>0.222</v>
       </c>
-      <c r="I74" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="M74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" t="s">
         <v>216</v>
       </c>
-      <c r="K74" t="s">
+      <c r="O74" t="s">
         <v>39</v>
       </c>
-      <c r="L74" t="s">
+      <c r="P74" t="s">
         <v>245</v>
       </c>
-      <c r="M74" t="s">
-        <v>33</v>
-      </c>
-      <c r="O74" t="s">
+      <c r="Q74" t="s">
+        <v>33</v>
+      </c>
+      <c r="S74" t="s">
         <v>218</v>
       </c>
-      <c r="P74" t="s">
+      <c r="T74" t="s">
         <v>220</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="U74" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
-      <c r="A75">
+    <row r="75" spans="1:21">
+      <c r="E75">
         <v>59</v>
       </c>
-      <c r="B75" t="s">
+      <c r="F75" t="s">
         <v>246</v>
       </c>
-      <c r="C75">
+      <c r="G75">
         <v>330</v>
       </c>
-      <c r="E75" t="s">
+      <c r="I75" t="s">
         <v>186</v>
       </c>
-      <c r="F75" s="1">
+      <c r="J75" s="1">
         <v>5000000000</v>
       </c>
-      <c r="G75" s="1">
+      <c r="K75" s="1">
         <v>0.33</v>
       </c>
-      <c r="I75" t="s">
-        <v>29</v>
-      </c>
-      <c r="J75" t="s">
+      <c r="M75" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" t="s">
         <v>216</v>
       </c>
-      <c r="K75" t="s">
+      <c r="O75" t="s">
         <v>39</v>
       </c>
-      <c r="L75" t="s">
+      <c r="P75" t="s">
         <v>247</v>
       </c>
-      <c r="M75" t="s">
-        <v>33</v>
-      </c>
-      <c r="O75" t="s">
+      <c r="Q75" t="s">
+        <v>33</v>
+      </c>
+      <c r="S75" t="s">
         <v>218</v>
       </c>
-      <c r="P75" t="s">
+      <c r="T75" t="s">
         <v>219</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="U75" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
-      <c r="A76">
+    <row r="76" spans="1:21">
+      <c r="E76">
         <v>60</v>
       </c>
-      <c r="B76" t="s">
+      <c r="F76" t="s">
         <v>246</v>
       </c>
-      <c r="C76">
+      <c r="G76">
         <v>243</v>
       </c>
-      <c r="E76" t="s">
+      <c r="I76" t="s">
         <v>186</v>
       </c>
-      <c r="F76" s="1">
+      <c r="J76" s="1">
         <v>5000000000</v>
       </c>
-      <c r="G76" s="1">
+      <c r="K76" s="1">
         <v>0.24299999999999999</v>
       </c>
-      <c r="I76" t="s">
-        <v>29</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="M76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" t="s">
         <v>216</v>
       </c>
-      <c r="K76" t="s">
+      <c r="O76" t="s">
         <v>39</v>
       </c>
-      <c r="L76" t="s">
+      <c r="P76" t="s">
         <v>247</v>
       </c>
-      <c r="M76" t="s">
-        <v>33</v>
-      </c>
-      <c r="O76" t="s">
+      <c r="Q76" t="s">
+        <v>33</v>
+      </c>
+      <c r="S76" t="s">
         <v>218</v>
       </c>
-      <c r="P76" t="s">
+      <c r="T76" t="s">
         <v>220</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="U76" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
-      <c r="A77">
+    <row r="77" spans="1:21">
+      <c r="E77">
         <v>61</v>
       </c>
-      <c r="B77" t="s">
+      <c r="F77" t="s">
         <v>248</v>
       </c>
-      <c r="C77">
+      <c r="G77">
         <v>358.2</v>
       </c>
-      <c r="E77" t="s">
+      <c r="I77" t="s">
         <v>237</v>
       </c>
-      <c r="F77" s="1">
+      <c r="J77" s="1">
         <v>5000000000</v>
       </c>
-      <c r="G77" s="1">
+      <c r="K77" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="I77" t="s">
-        <v>29</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="M77" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" t="s">
         <v>249</v>
       </c>
-      <c r="K77" t="s">
+      <c r="O77" t="s">
         <v>39</v>
       </c>
-      <c r="L77" t="s">
+      <c r="P77" t="s">
         <v>250</v>
       </c>
-      <c r="M77" t="s">
-        <v>33</v>
-      </c>
-      <c r="N77" t="s">
+      <c r="Q77" t="s">
+        <v>33</v>
+      </c>
+      <c r="R77" t="s">
         <v>251</v>
       </c>
-      <c r="O77" t="s">
+      <c r="S77" t="s">
         <v>158</v>
       </c>
-      <c r="P77" t="s">
+      <c r="T77" t="s">
         <v>252</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="U77" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
-      <c r="A78">
+    <row r="78" spans="1:21">
+      <c r="E78">
         <v>62</v>
       </c>
-      <c r="B78" t="s">
+      <c r="F78" t="s">
         <v>253</v>
       </c>
-      <c r="C78">
+      <c r="G78">
         <v>363</v>
       </c>
-      <c r="E78" t="s">
+      <c r="I78" t="s">
         <v>237</v>
       </c>
-      <c r="F78" s="1">
+      <c r="J78" s="1">
         <v>4890000000</v>
       </c>
-      <c r="G78" s="1">
+      <c r="K78" s="1">
         <v>0.36299999999999999</v>
       </c>
-      <c r="I78" t="s">
-        <v>29</v>
-      </c>
-      <c r="J78" t="s">
+      <c r="M78" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" t="s">
         <v>254</v>
       </c>
-      <c r="K78" t="s">
+      <c r="O78" t="s">
         <v>39</v>
       </c>
-      <c r="L78" t="s">
+      <c r="P78" t="s">
         <v>255</v>
       </c>
-      <c r="M78" t="s">
-        <v>33</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="Q78" t="s">
+        <v>33</v>
+      </c>
+      <c r="R78" t="s">
         <v>256</v>
       </c>
-      <c r="O78" t="s">
+      <c r="S78" t="s">
         <v>34</v>
       </c>
-      <c r="P78" t="s">
+      <c r="T78" t="s">
         <v>257</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="U78" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
-      <c r="A79">
+    <row r="79" spans="1:21">
+      <c r="E79">
         <v>63</v>
       </c>
-      <c r="B79" t="s">
+      <c r="F79" t="s">
         <v>258</v>
       </c>
-      <c r="C79">
+      <c r="G79">
         <v>663</v>
       </c>
-      <c r="D79" t="s">
+      <c r="H79" t="s">
         <v>259</v>
       </c>
-      <c r="E79" t="s">
+      <c r="I79" t="s">
         <v>237</v>
       </c>
-      <c r="F79" s="1">
+      <c r="J79" s="1">
         <v>4850000000</v>
       </c>
-      <c r="G79" s="1">
+      <c r="K79" s="1">
         <v>0.66300000000000003</v>
       </c>
-      <c r="H79" t="s">
+      <c r="L79" t="s">
         <v>260</v>
       </c>
-      <c r="I79" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" t="s">
+      <c r="M79" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" t="s">
         <v>261</v>
       </c>
-      <c r="K79" t="s">
+      <c r="O79" t="s">
         <v>89</v>
       </c>
-      <c r="L79" t="s">
+      <c r="P79" t="s">
         <v>262</v>
       </c>
-      <c r="M79" t="s">
-        <v>33</v>
-      </c>
-      <c r="N79" t="s">
+      <c r="Q79" t="s">
+        <v>33</v>
+      </c>
+      <c r="R79" t="s">
         <v>263</v>
       </c>
-      <c r="O79" t="s">
+      <c r="S79" t="s">
         <v>71</v>
       </c>
-      <c r="P79" t="s">
+      <c r="T79" t="s">
         <v>35</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="U79" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
-      <c r="A80">
+    <row r="80" spans="1:21">
+      <c r="E80">
         <v>64</v>
       </c>
-      <c r="B80" t="s">
+      <c r="F80" t="s">
         <v>258</v>
       </c>
-      <c r="C80">
+      <c r="G80">
         <v>668</v>
       </c>
-      <c r="D80" t="s">
+      <c r="H80" t="s">
         <v>264</v>
       </c>
-      <c r="E80" t="s">
+      <c r="I80" t="s">
         <v>237</v>
       </c>
-      <c r="F80" s="1">
+      <c r="J80" s="1">
         <v>4850000000</v>
       </c>
-      <c r="G80" s="1">
+      <c r="K80" s="1">
         <v>0.66800000000000004</v>
       </c>
-      <c r="H80" t="s">
+      <c r="L80" t="s">
         <v>265</v>
       </c>
-      <c r="I80" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="M80" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" t="s">
         <v>266</v>
       </c>
-      <c r="K80" t="s">
+      <c r="O80" t="s">
         <v>48</v>
       </c>
-      <c r="L80" t="s">
+      <c r="P80" t="s">
         <v>262</v>
       </c>
-      <c r="M80" t="s">
-        <v>33</v>
-      </c>
-      <c r="N80" t="s">
+      <c r="Q80" t="s">
+        <v>33</v>
+      </c>
+      <c r="R80" t="s">
         <v>267</v>
       </c>
-      <c r="O80" t="s">
+      <c r="S80" t="s">
         <v>268</v>
       </c>
-      <c r="P80" t="s">
+      <c r="T80" t="s">
         <v>35</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="U80" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
-      <c r="A81">
+    <row r="81" spans="5:21">
+      <c r="E81">
         <v>65</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" t="s">
         <v>269</v>
       </c>
-      <c r="C81">
+      <c r="G81">
         <v>693</v>
       </c>
-      <c r="E81" t="s">
+      <c r="I81" t="s">
         <v>237</v>
       </c>
-      <c r="F81" s="1">
+      <c r="J81" s="1">
         <v>4830000000</v>
       </c>
-      <c r="G81" s="1">
+      <c r="K81" s="1">
         <v>0.69299999999999995</v>
       </c>
-      <c r="I81" t="s">
-        <v>29</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="M81" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" t="s">
         <v>270</v>
       </c>
-      <c r="K81" t="s">
+      <c r="O81" t="s">
         <v>39</v>
       </c>
-      <c r="L81" t="s">
+      <c r="P81" t="s">
         <v>271</v>
       </c>
-      <c r="M81" t="s">
-        <v>33</v>
-      </c>
-      <c r="N81" t="s">
+      <c r="Q81" t="s">
+        <v>33</v>
+      </c>
+      <c r="R81" t="s">
         <v>272</v>
       </c>
-      <c r="O81" t="s">
+      <c r="S81" t="s">
         <v>34</v>
       </c>
-      <c r="P81" t="s">
+      <c r="T81" t="s">
         <v>273</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="U81" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
-      <c r="A82">
+    <row r="82" spans="5:21">
+      <c r="E82">
         <v>66</v>
       </c>
-      <c r="B82" t="s">
+      <c r="F82" t="s">
         <v>274</v>
       </c>
-      <c r="C82">
+      <c r="G82">
         <v>338</v>
       </c>
-      <c r="E82" t="s">
+      <c r="I82" t="s">
         <v>186</v>
       </c>
-      <c r="F82" s="1">
+      <c r="J82" s="1">
         <v>1400000000</v>
       </c>
-      <c r="G82" s="1">
+      <c r="K82" s="1">
         <v>0.33800000000000002</v>
       </c>
-      <c r="I82" t="s">
-        <v>29</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="M82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N82" t="s">
         <v>216</v>
       </c>
-      <c r="K82" t="s">
+      <c r="O82" t="s">
         <v>39</v>
       </c>
-      <c r="L82" t="s">
+      <c r="P82" t="s">
         <v>275</v>
       </c>
-      <c r="M82" t="s">
-        <v>33</v>
-      </c>
-      <c r="O82" t="s">
+      <c r="Q82" t="s">
+        <v>33</v>
+      </c>
+      <c r="S82" t="s">
         <v>218</v>
       </c>
-      <c r="P82" t="s">
+      <c r="T82" t="s">
         <v>220</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="U82" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
-      <c r="A83">
+    <row r="83" spans="5:21">
+      <c r="E83">
         <v>67</v>
       </c>
-      <c r="B83" t="s">
+      <c r="F83" t="s">
         <v>274</v>
       </c>
-      <c r="C83">
+      <c r="G83">
         <v>399</v>
       </c>
-      <c r="E83" t="s">
+      <c r="I83" t="s">
         <v>186</v>
       </c>
-      <c r="F83" s="1">
+      <c r="J83" s="1">
         <v>1400000000</v>
       </c>
-      <c r="G83" s="1">
+      <c r="K83" s="1">
         <v>0.39900000000000002</v>
       </c>
-      <c r="I83" t="s">
-        <v>29</v>
-      </c>
-      <c r="J83" t="s">
+      <c r="M83" t="s">
+        <v>29</v>
+      </c>
+      <c r="N83" t="s">
         <v>216</v>
       </c>
-      <c r="K83" t="s">
+      <c r="O83" t="s">
         <v>39</v>
       </c>
-      <c r="L83" t="s">
+      <c r="P83" t="s">
         <v>275</v>
       </c>
-      <c r="M83" t="s">
-        <v>33</v>
-      </c>
-      <c r="O83" t="s">
+      <c r="Q83" t="s">
+        <v>33</v>
+      </c>
+      <c r="S83" t="s">
         <v>218</v>
       </c>
-      <c r="P83" t="s">
+      <c r="T83" t="s">
         <v>219</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="U83" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
-      <c r="A84">
+    <row r="84" spans="5:21">
+      <c r="E84">
         <v>68</v>
       </c>
-      <c r="B84" t="s">
+      <c r="F84" t="s">
         <v>276</v>
       </c>
-      <c r="C84">
+      <c r="G84">
         <v>637.6</v>
       </c>
-      <c r="D84" t="s">
+      <c r="H84" t="s">
         <v>277</v>
       </c>
-      <c r="E84" t="s">
+      <c r="I84" t="s">
         <v>237</v>
       </c>
-      <c r="F84" s="1">
+      <c r="J84" s="1">
         <v>1400000000</v>
       </c>
-      <c r="G84" s="1">
+      <c r="K84" s="1">
         <v>0.63800000000000001</v>
       </c>
-      <c r="H84" t="s">
+      <c r="L84" t="s">
         <v>278</v>
       </c>
-      <c r="I84" t="s">
-        <v>29</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="M84" t="s">
+        <v>29</v>
+      </c>
+      <c r="N84" t="s">
         <v>279</v>
       </c>
-      <c r="K84" t="s">
+      <c r="O84" t="s">
         <v>48</v>
       </c>
-      <c r="L84" t="s">
+      <c r="P84" t="s">
         <v>280</v>
       </c>
-      <c r="M84" t="s">
-        <v>33</v>
-      </c>
-      <c r="N84" t="s">
+      <c r="Q84" t="s">
+        <v>33</v>
+      </c>
+      <c r="R84" t="s">
         <v>281</v>
       </c>
-      <c r="O84" t="s">
+      <c r="S84" t="s">
         <v>34</v>
       </c>
-      <c r="P84" t="s">
+      <c r="T84" t="s">
         <v>282</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="U84" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
-      <c r="A85">
+    <row r="85" spans="5:21">
+      <c r="E85">
         <v>69</v>
       </c>
-      <c r="B85" t="s">
+      <c r="F85" t="s">
         <v>283</v>
       </c>
-      <c r="C85">
+      <c r="G85">
         <v>695</v>
       </c>
-      <c r="E85" t="s">
+      <c r="I85" t="s">
         <v>237</v>
       </c>
-      <c r="F85" s="1">
+      <c r="J85" s="1">
         <v>1400000000</v>
       </c>
-      <c r="G85" s="1">
+      <c r="K85" s="1">
         <v>0.69499999999999995</v>
       </c>
-      <c r="I85" t="s">
-        <v>29</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="M85" t="s">
+        <v>29</v>
+      </c>
+      <c r="N85" t="s">
         <v>284</v>
       </c>
-      <c r="K85" t="s">
+      <c r="O85" t="s">
         <v>39</v>
       </c>
-      <c r="L85" t="s">
+      <c r="P85" t="s">
         <v>285</v>
       </c>
-      <c r="M85" t="s">
-        <v>33</v>
-      </c>
-      <c r="N85" t="s">
+      <c r="Q85" t="s">
+        <v>33</v>
+      </c>
+      <c r="R85" t="s">
         <v>267</v>
       </c>
-      <c r="O85" t="s">
+      <c r="S85" t="s">
         <v>268</v>
       </c>
-      <c r="P85" t="s">
+      <c r="T85" t="s">
         <v>35</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="U85" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
-      <c r="A86">
+    <row r="86" spans="5:21">
+      <c r="E86">
         <v>70</v>
       </c>
-      <c r="B86" t="s">
+      <c r="F86" t="s">
         <v>286</v>
       </c>
-      <c r="C86">
+      <c r="G86">
         <v>0.33</v>
       </c>
-      <c r="D86" t="s">
+      <c r="H86" t="s">
         <v>287</v>
       </c>
-      <c r="E86" t="s">
+      <c r="I86" t="s">
         <v>232</v>
       </c>
-      <c r="F86" s="1">
+      <c r="J86" s="1">
         <v>408000000</v>
       </c>
-      <c r="G86" s="1">
+      <c r="K86" s="1">
         <v>0.33</v>
       </c>
-      <c r="H86" t="s">
+      <c r="L86" t="s">
         <v>288</v>
       </c>
-      <c r="I86" t="s">
-        <v>29</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="M86" t="s">
+        <v>29</v>
+      </c>
+      <c r="N86" t="s">
         <v>289</v>
       </c>
-      <c r="K86" t="s">
+      <c r="O86" t="s">
         <v>290</v>
       </c>
-      <c r="L86" t="s">
+      <c r="P86" t="s">
         <v>291</v>
       </c>
-      <c r="M86" t="s">
+      <c r="Q86" t="s">
         <v>292</v>
       </c>
-      <c r="N86" t="s">
+      <c r="R86" t="s">
         <v>293</v>
       </c>
-      <c r="O86" t="s">
+      <c r="S86" t="s">
         <v>268</v>
       </c>
-      <c r="P86" t="s">
+      <c r="T86" t="s">
         <v>35</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="U86" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
-      <c r="A87">
+    <row r="87" spans="5:21">
+      <c r="E87">
         <v>71</v>
       </c>
-      <c r="B87" t="s">
+      <c r="F87" t="s">
         <v>294</v>
       </c>
-      <c r="C87">
+      <c r="G87">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D87" t="s">
+      <c r="H87" t="s">
         <v>165</v>
       </c>
-      <c r="E87" t="s">
+      <c r="I87" t="s">
         <v>232</v>
       </c>
-      <c r="F87" s="1">
+      <c r="J87" s="1">
         <v>365000000</v>
       </c>
-      <c r="G87" s="1">
+      <c r="K87" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="H87" t="s">
+      <c r="L87" t="s">
         <v>295</v>
       </c>
-      <c r="I87" t="s">
-        <v>29</v>
-      </c>
-      <c r="J87" t="s">
+      <c r="M87" t="s">
+        <v>29</v>
+      </c>
+      <c r="N87" t="s">
         <v>296</v>
       </c>
-      <c r="K87" t="s">
+      <c r="O87" t="s">
         <v>290</v>
       </c>
-      <c r="L87" t="s">
+      <c r="P87" t="s">
         <v>297</v>
       </c>
-      <c r="M87" t="s">
+      <c r="Q87" t="s">
         <v>298</v>
       </c>
-      <c r="N87" t="s">
+      <c r="R87" t="s">
         <v>299</v>
       </c>
-      <c r="O87" t="s">
+      <c r="S87" t="s">
         <v>84</v>
       </c>
-      <c r="P87" t="s">
+      <c r="T87" t="s">
         <v>300</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="U87" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
-      <c r="A88">
+    <row r="88" spans="5:21">
+      <c r="E88">
         <v>72</v>
       </c>
-      <c r="B88" t="s">
+      <c r="F88" t="s">
         <v>301</v>
       </c>
-      <c r="C88">
+      <c r="G88">
         <v>0.25</v>
       </c>
-      <c r="D88" t="s">
+      <c r="H88" t="s">
         <v>302</v>
       </c>
-      <c r="E88" t="s">
+      <c r="I88" t="s">
         <v>232</v>
       </c>
-      <c r="F88" s="1">
+      <c r="J88" s="1">
         <v>151000000</v>
       </c>
-      <c r="G88" s="1">
+      <c r="K88" s="1">
         <v>0.25</v>
       </c>
-      <c r="H88" t="s">
+      <c r="L88" t="s">
         <v>303</v>
       </c>
-      <c r="I88" t="s">
-        <v>29</v>
-      </c>
-      <c r="J88" t="s">
+      <c r="M88" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" t="s">
         <v>304</v>
       </c>
-      <c r="K88" t="s">
+      <c r="O88" t="s">
         <v>305</v>
       </c>
-      <c r="L88" t="s">
+      <c r="P88" t="s">
         <v>306</v>
       </c>
-      <c r="M88" t="s">
-        <v>33</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="Q88" t="s">
+        <v>33</v>
+      </c>
+      <c r="R88" t="s">
         <v>307</v>
       </c>
-      <c r="O88" t="s">
+      <c r="S88" t="s">
         <v>308</v>
       </c>
-      <c r="P88" t="s">
+      <c r="T88" t="s">
         <v>35</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="U88" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q4" r:id="rId1"/>
+    <hyperlink ref="U4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
